--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$251</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T11:08:45+00:00</t>
+    <t>2024-02-07T14:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3040,6 +3043,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -3370,7 +3388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -3572,7 +3590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -3672,7 +3690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>99</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -3976,7 +3994,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>115</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>72</v>
@@ -4078,7 +4096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>121</v>
       </c>
@@ -4180,7 +4198,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>127</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>133</v>
       </c>
@@ -4384,7 +4402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>142</v>
       </c>
@@ -4486,7 +4504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>151</v>
       </c>
@@ -4507,7 +4525,7 @@
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>72</v>
@@ -4588,7 +4606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>155</v>
       </c>
@@ -4690,7 +4708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>160</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>169</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>176</v>
       </c>
@@ -4996,7 +5014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>183</v>
       </c>
@@ -5096,7 +5114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>187</v>
       </c>
@@ -5200,7 +5218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>192</v>
       </c>
@@ -5304,7 +5322,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>195</v>
       </c>
@@ -5408,7 +5426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>199</v>
       </c>
@@ -5429,7 +5447,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>72</v>
@@ -5510,7 +5528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>204</v>
       </c>
@@ -5531,7 +5549,7 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>72</v>
@@ -5612,7 +5630,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>209</v>
       </c>
@@ -5633,7 +5651,7 @@
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>72</v>
@@ -5714,7 +5732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>214</v>
       </c>
@@ -5735,7 +5753,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>72</v>
@@ -5816,7 +5834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>219</v>
       </c>
@@ -5837,7 +5855,7 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>72</v>
@@ -5918,7 +5936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>224</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>72</v>
@@ -6020,7 +6038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -6041,7 +6059,7 @@
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>72</v>
@@ -6122,7 +6140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>234</v>
       </c>
@@ -6143,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>72</v>
@@ -6224,7 +6242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>239</v>
       </c>
@@ -6245,7 +6263,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>72</v>
@@ -6326,7 +6344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>244</v>
       </c>
@@ -6347,7 +6365,7 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>72</v>
@@ -6428,7 +6446,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>249</v>
       </c>
@@ -6449,7 +6467,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>72</v>
@@ -6530,7 +6548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>254</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>72</v>
@@ -6632,7 +6650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>259</v>
       </c>
@@ -6653,7 +6671,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>72</v>
@@ -6734,7 +6752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>262</v>
       </c>
@@ -6755,7 +6773,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>72</v>
@@ -6836,7 +6854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>267</v>
       </c>
@@ -6857,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>72</v>
@@ -6938,7 +6956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>272</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>72</v>
@@ -7040,7 +7058,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>277</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>282</v>
       </c>
@@ -7163,7 +7181,7 @@
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>72</v>
@@ -7244,7 +7262,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>289</v>
       </c>
@@ -7344,7 +7362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>290</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>291</v>
       </c>
@@ -7550,7 +7568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>299</v>
       </c>
@@ -7654,7 +7672,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>308</v>
       </c>
@@ -7758,7 +7776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>315</v>
       </c>
@@ -7860,7 +7878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>321</v>
       </c>
@@ -7962,7 +7980,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>328</v>
       </c>
@@ -8064,7 +8082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>335</v>
       </c>
@@ -8085,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>72</v>
@@ -8168,7 +8186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>338</v>
       </c>
@@ -8268,7 +8286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>339</v>
       </c>
@@ -8370,7 +8388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>340</v>
       </c>
@@ -8474,7 +8492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>341</v>
       </c>
@@ -8493,7 +8511,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>72</v>
@@ -8578,7 +8596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>343</v>
       </c>
@@ -8682,7 +8700,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>345</v>
       </c>
@@ -8784,7 +8802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>346</v>
       </c>
@@ -8886,7 +8904,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>347</v>
       </c>
@@ -8988,7 +9006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>348</v>
       </c>
@@ -9009,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>72</v>
@@ -9092,7 +9110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>351</v>
       </c>
@@ -9192,7 +9210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>352</v>
       </c>
@@ -9294,7 +9312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>353</v>
       </c>
@@ -9398,7 +9416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>354</v>
       </c>
@@ -9417,7 +9435,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>72</v>
@@ -9502,7 +9520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>356</v>
       </c>
@@ -9606,7 +9624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>358</v>
       </c>
@@ -9708,7 +9726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>359</v>
       </c>
@@ -9810,7 +9828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>360</v>
       </c>
@@ -9912,7 +9930,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>361</v>
       </c>
@@ -9933,7 +9951,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>72</v>
@@ -10016,7 +10034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>364</v>
       </c>
@@ -10116,7 +10134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>365</v>
       </c>
@@ -10218,7 +10236,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>366</v>
       </c>
@@ -10322,7 +10340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>367</v>
       </c>
@@ -10341,7 +10359,7 @@
         <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>72</v>
@@ -10426,7 +10444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>369</v>
       </c>
@@ -10530,7 +10548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>371</v>
       </c>
@@ -10632,7 +10650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>372</v>
       </c>
@@ -10734,7 +10752,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>373</v>
       </c>
@@ -10836,7 +10854,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>374</v>
       </c>
@@ -10857,7 +10875,7 @@
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>72</v>
@@ -10940,7 +10958,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>377</v>
       </c>
@@ -11040,7 +11058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>378</v>
       </c>
@@ -11142,7 +11160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>379</v>
       </c>
@@ -11246,7 +11264,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>380</v>
       </c>
@@ -11265,7 +11283,7 @@
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>72</v>
@@ -11350,7 +11368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>382</v>
       </c>
@@ -11454,7 +11472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>384</v>
       </c>
@@ -11556,7 +11574,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>385</v>
       </c>
@@ -11658,7 +11676,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>386</v>
       </c>
@@ -11760,7 +11778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>387</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>72</v>
@@ -11864,7 +11882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>390</v>
       </c>
@@ -11964,7 +11982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>391</v>
       </c>
@@ -12066,7 +12084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
         <v>392</v>
       </c>
@@ -12170,7 +12188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>393</v>
       </c>
@@ -12189,7 +12207,7 @@
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>72</v>
@@ -12274,7 +12292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>395</v>
       </c>
@@ -12378,7 +12396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>397</v>
       </c>
@@ -12480,7 +12498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>398</v>
       </c>
@@ -12582,7 +12600,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>399</v>
       </c>
@@ -12684,7 +12702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>400</v>
       </c>
@@ -12705,7 +12723,7 @@
         <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>72</v>
@@ -12788,7 +12806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>403</v>
       </c>
@@ -12888,7 +12906,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>404</v>
       </c>
@@ -12990,7 +13008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>405</v>
       </c>
@@ -13094,7 +13112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>406</v>
       </c>
@@ -13113,7 +13131,7 @@
         <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>72</v>
@@ -13198,7 +13216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>408</v>
       </c>
@@ -13302,7 +13320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>410</v>
       </c>
@@ -13404,7 +13422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>411</v>
       </c>
@@ -13506,7 +13524,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>412</v>
       </c>
@@ -13608,7 +13626,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>413</v>
       </c>
@@ -13629,7 +13647,7 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>72</v>
@@ -13712,7 +13730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>415</v>
       </c>
@@ -13812,7 +13830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>416</v>
       </c>
@@ -13914,7 +13932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>417</v>
       </c>
@@ -14018,7 +14036,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
         <v>418</v>
       </c>
@@ -14037,7 +14055,7 @@
         <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>72</v>
@@ -14122,7 +14140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>420</v>
       </c>
@@ -14226,7 +14244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>422</v>
       </c>
@@ -14328,7 +14346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>423</v>
       </c>
@@ -14430,7 +14448,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>424</v>
       </c>
@@ -14532,7 +14550,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>425</v>
       </c>
@@ -14638,7 +14656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>432</v>
       </c>
@@ -14657,7 +14675,7 @@
         <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>72</v>
@@ -14740,7 +14758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>440</v>
       </c>
@@ -14846,7 +14864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>443</v>
       </c>
@@ -14946,7 +14964,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>445</v>
       </c>
@@ -15048,7 +15066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>447</v>
       </c>
@@ -15152,7 +15170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
         <v>454</v>
       </c>
@@ -15252,7 +15270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>456</v>
       </c>
@@ -15354,7 +15372,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>458</v>
       </c>
@@ -15458,7 +15476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>466</v>
       </c>
@@ -15560,7 +15578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>472</v>
       </c>
@@ -15664,7 +15682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
         <v>479</v>
       </c>
@@ -15768,7 +15786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
         <v>485</v>
       </c>
@@ -15872,7 +15890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>492</v>
       </c>
@@ -15976,7 +15994,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
         <v>499</v>
       </c>
@@ -16082,7 +16100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
         <v>503</v>
       </c>
@@ -16182,7 +16200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
         <v>504</v>
       </c>
@@ -16284,7 +16302,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
         <v>505</v>
       </c>
@@ -16388,7 +16406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>506</v>
       </c>
@@ -16488,7 +16506,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>507</v>
       </c>
@@ -16590,7 +16608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>508</v>
       </c>
@@ -16694,7 +16712,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
         <v>511</v>
       </c>
@@ -16796,7 +16814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
         <v>512</v>
       </c>
@@ -16900,7 +16918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>513</v>
       </c>
@@ -17004,7 +17022,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
         <v>514</v>
       </c>
@@ -17108,7 +17126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
         <v>515</v>
       </c>
@@ -17212,7 +17230,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
         <v>516</v>
       </c>
@@ -17318,7 +17336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
         <v>520</v>
       </c>
@@ -17418,7 +17436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>521</v>
       </c>
@@ -17520,7 +17538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>522</v>
       </c>
@@ -17624,7 +17642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>523</v>
       </c>
@@ -17724,7 +17742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
         <v>524</v>
       </c>
@@ -17826,7 +17844,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>525</v>
       </c>
@@ -17930,7 +17948,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
         <v>528</v>
       </c>
@@ -18032,7 +18050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
         <v>529</v>
       </c>
@@ -18136,7 +18154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
         <v>530</v>
       </c>
@@ -18240,7 +18258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
         <v>531</v>
       </c>
@@ -18344,7 +18362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
         <v>532</v>
       </c>
@@ -18448,7 +18466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>533</v>
       </c>
@@ -18469,7 +18487,7 @@
         <v>80</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>72</v>
@@ -18552,7 +18570,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>537</v>
       </c>
@@ -18573,7 +18591,7 @@
         <v>80</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>72</v>
@@ -18656,7 +18674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
         <v>541</v>
       </c>
@@ -18677,7 +18695,7 @@
         <v>80</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>72</v>
@@ -18760,7 +18778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
         <v>545</v>
       </c>
@@ -18781,7 +18799,7 @@
         <v>80</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>72</v>
@@ -18864,7 +18882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
         <v>549</v>
       </c>
@@ -18885,7 +18903,7 @@
         <v>80</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>72</v>
@@ -18968,7 +18986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
         <v>553</v>
       </c>
@@ -18987,7 +19005,7 @@
         <v>80</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>72</v>
@@ -19072,7 +19090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
         <v>558</v>
       </c>
@@ -19172,7 +19190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
         <v>559</v>
       </c>
@@ -19274,7 +19292,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
         <v>560</v>
       </c>
@@ -19295,7 +19313,7 @@
         <v>80</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>72</v>
@@ -19376,7 +19394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
         <v>565</v>
       </c>
@@ -19476,7 +19494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>569</v>
       </c>
@@ -19495,7 +19513,7 @@
         <v>74</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>72</v>
@@ -19580,7 +19598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>574</v>
       </c>
@@ -19599,7 +19617,7 @@
         <v>74</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>72</v>
@@ -19684,7 +19702,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>582</v>
       </c>
@@ -19784,7 +19802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
         <v>583</v>
       </c>
@@ -19884,7 +19902,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
         <v>585</v>
       </c>
@@ -19988,7 +20006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
         <v>589</v>
       </c>
@@ -20009,7 +20027,7 @@
         <v>80</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I164" t="s" s="2">
         <v>72</v>
@@ -20090,7 +20108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
         <v>594</v>
       </c>
@@ -20111,7 +20129,7 @@
         <v>80</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>72</v>
@@ -20192,7 +20210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
         <v>599</v>
       </c>
@@ -20213,7 +20231,7 @@
         <v>80</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>72</v>
@@ -20294,7 +20312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
         <v>604</v>
       </c>
@@ -20396,7 +20414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
         <v>611</v>
       </c>
@@ -20415,7 +20433,7 @@
         <v>80</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I168" t="s" s="2">
         <v>72</v>
@@ -20500,7 +20518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
         <v>617</v>
       </c>
@@ -20604,7 +20622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
         <v>625</v>
       </c>
@@ -20706,7 +20724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
         <v>631</v>
       </c>
@@ -20808,7 +20826,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
         <v>635</v>
       </c>
@@ -20827,7 +20845,7 @@
         <v>80</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>72</v>
@@ -20912,7 +20930,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
         <v>643</v>
       </c>
@@ -21012,7 +21030,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
         <v>644</v>
       </c>
@@ -21114,7 +21132,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
         <v>645</v>
       </c>
@@ -21216,7 +21234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
         <v>648</v>
       </c>
@@ -21316,7 +21334,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
         <v>650</v>
       </c>
@@ -21416,7 +21434,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
         <v>652</v>
       </c>
@@ -21518,7 +21536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
         <v>659</v>
       </c>
@@ -21616,7 +21634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
         <v>665</v>
       </c>
@@ -21637,7 +21655,7 @@
         <v>80</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>72</v>
@@ -21720,7 +21738,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
         <v>671</v>
       </c>
@@ -21820,7 +21838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
         <v>672</v>
       </c>
@@ -21920,7 +21938,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
         <v>673</v>
       </c>
@@ -22024,7 +22042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
         <v>677</v>
       </c>
@@ -22124,7 +22142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
         <v>679</v>
       </c>
@@ -22226,7 +22244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
         <v>681</v>
       </c>
@@ -22328,7 +22346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
         <v>683</v>
       </c>
@@ -22428,7 +22446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
         <v>686</v>
       </c>
@@ -22532,7 +22550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
         <v>690</v>
       </c>
@@ -22632,7 +22650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
         <v>691</v>
       </c>
@@ -22734,7 +22752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
         <v>692</v>
       </c>
@@ -22836,7 +22854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
         <v>693</v>
       </c>
@@ -22936,7 +22954,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
         <v>694</v>
       </c>
@@ -22957,7 +22975,7 @@
         <v>80</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>72</v>
@@ -23038,7 +23056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
         <v>698</v>
       </c>
@@ -23140,7 +23158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
         <v>700</v>
       </c>
@@ -23240,7 +23258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
         <v>702</v>
       </c>
@@ -23344,7 +23362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
         <v>711</v>
       </c>
@@ -23446,7 +23464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
         <v>719</v>
       </c>
@@ -23550,7 +23568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
         <v>726</v>
       </c>
@@ -23652,7 +23670,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
         <v>731</v>
       </c>
@@ -23752,7 +23770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
         <v>732</v>
       </c>
@@ -23854,7 +23872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
         <v>733</v>
       </c>
@@ -23875,7 +23893,7 @@
         <v>80</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>72</v>
@@ -23956,7 +23974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
         <v>738</v>
       </c>
@@ -23977,7 +23995,7 @@
         <v>80</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I203" t="s" s="2">
         <v>72</v>
@@ -24058,7 +24076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
         <v>743</v>
       </c>
@@ -24079,7 +24097,7 @@
         <v>80</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>72</v>
@@ -24160,7 +24178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
         <v>748</v>
       </c>
@@ -24181,7 +24199,7 @@
         <v>80</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>72</v>
@@ -24262,7 +24280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
         <v>753</v>
       </c>
@@ -24283,7 +24301,7 @@
         <v>80</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>72</v>
@@ -24364,7 +24382,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
         <v>758</v>
       </c>
@@ -24464,7 +24482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
         <v>760</v>
       </c>
@@ -24566,7 +24584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
         <v>762</v>
       </c>
@@ -24668,7 +24686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
         <v>765</v>
       </c>
@@ -24764,7 +24782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
         <v>770</v>
       </c>
@@ -24866,7 +24884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
         <v>774</v>
       </c>
@@ -24887,7 +24905,7 @@
         <v>80</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>72</v>
@@ -24968,7 +24986,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
         <v>779</v>
       </c>
@@ -24989,7 +25007,7 @@
         <v>80</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>72</v>
@@ -25070,7 +25088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
         <v>784</v>
       </c>
@@ -25091,7 +25109,7 @@
         <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>72</v>
@@ -25172,7 +25190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
         <v>789</v>
       </c>
@@ -25272,7 +25290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
         <v>790</v>
       </c>
@@ -25291,7 +25309,7 @@
         <v>80</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>72</v>
@@ -25374,7 +25392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
         <v>796</v>
       </c>
@@ -25476,7 +25494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
         <v>803</v>
       </c>
@@ -25578,7 +25596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
         <v>808</v>
       </c>
@@ -25597,7 +25615,7 @@
         <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>72</v>
@@ -25680,7 +25698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
         <v>814</v>
       </c>
@@ -25782,7 +25800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
         <v>819</v>
       </c>
@@ -25886,7 +25904,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
         <v>825</v>
       </c>
@@ -25905,7 +25923,7 @@
         <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>72</v>
@@ -25990,7 +26008,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
         <v>831</v>
       </c>
@@ -26090,7 +26108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
         <v>832</v>
       </c>
@@ -26192,7 +26210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
         <v>833</v>
       </c>
@@ -26294,7 +26312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
         <v>839</v>
       </c>
@@ -26396,7 +26414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
         <v>845</v>
       </c>
@@ -26498,7 +26516,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
         <v>850</v>
       </c>
@@ -26600,7 +26618,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
         <v>855</v>
       </c>
@@ -26704,7 +26722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
         <v>861</v>
       </c>
@@ -26804,7 +26822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
         <v>862</v>
       </c>
@@ -26906,7 +26924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
         <v>863</v>
       </c>
@@ -26927,7 +26945,7 @@
         <v>80</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>72</v>
@@ -27008,7 +27026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
         <v>868</v>
       </c>
@@ -27029,7 +27047,7 @@
         <v>80</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>72</v>
@@ -27110,7 +27128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
         <v>873</v>
       </c>
@@ -27131,7 +27149,7 @@
         <v>80</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>72</v>
@@ -27212,7 +27230,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
         <v>878</v>
       </c>
@@ -27316,7 +27334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
         <v>883</v>
       </c>
@@ -27335,7 +27353,7 @@
         <v>80</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>72</v>
@@ -27418,7 +27436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
         <v>889</v>
       </c>
@@ -27437,7 +27455,7 @@
         <v>80</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>72</v>
@@ -27522,7 +27540,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
         <v>895</v>
       </c>
@@ -27624,7 +27642,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
         <v>899</v>
       </c>
@@ -27724,7 +27742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
         <v>900</v>
       </c>
@@ -27824,7 +27842,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
         <v>901</v>
       </c>
@@ -27928,7 +27946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
         <v>902</v>
       </c>
@@ -27949,7 +27967,7 @@
         <v>80</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>72</v>
@@ -28030,7 +28048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
         <v>903</v>
       </c>
@@ -28051,7 +28069,7 @@
         <v>80</v>
       </c>
       <c r="H243" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I243" t="s" s="2">
         <v>72</v>
@@ -28132,7 +28150,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
         <v>904</v>
       </c>
@@ -28153,7 +28171,7 @@
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>72</v>
@@ -28234,7 +28252,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
         <v>906</v>
       </c>
@@ -28336,7 +28354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
         <v>907</v>
       </c>
@@ -28355,7 +28373,7 @@
         <v>80</v>
       </c>
       <c r="H246" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I246" t="s" s="2">
         <v>72</v>
@@ -28440,7 +28458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
         <v>908</v>
       </c>
@@ -28544,7 +28562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
         <v>909</v>
       </c>
@@ -28646,7 +28664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
         <v>910</v>
       </c>
@@ -28748,7 +28766,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
         <v>911</v>
       </c>
@@ -28852,7 +28870,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
         <v>914</v>
       </c>
@@ -28957,6 +28975,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ251">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI250">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:28:15+00:00</t>
+    <t>2024-02-07T16:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:04:22+00:00</t>
+    <t>2024-02-07T17:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:31:40+00:00</t>
+    <t>2024-02-07T17:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:32:41+00:00</t>
+    <t>2024-02-08T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T09:57:00+00:00</t>
+    <t>2024-02-11T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:45:47+00:00</t>
+    <t>2024-02-12T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T12:45:21+00:00</t>
+    <t>2024-02-15T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:40:40+00:00</t>
+    <t>2024-02-16T09:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:35:34+00:00</t>
+    <t>2024-02-16T16:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1770,9 +1770,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>raisonSociale (EJ) : Raison sociale complète de l'entité juridique
-ou nom de l'EG :  Nom sous lequel l'entité géographique exerce son activité
-ou nom de l'OI : Nom de l'organisation interne</t>
+    <t>raisonSociale (EJ) ou denominationEG (EG) ou nomOI (OI) - Remarque : Décalage provisoire de la cardinalité par rapport au modèle d'exposition (1..1)</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -1800,7 +1798,7 @@
 </t>
   </si>
   <si>
-    <t>complementRaisonSociale (EJ) : Suite de la raison sociale, si elle existe</t>
+    <t>complementRaisonSociale (EJ) ou complementDenominationEG (EG)</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour nom complémentaire de l'EJ (complementRaisonSociale)  ou nom complémentaire de l'EG (DenominationEG)</t>
@@ -1821,7 +1819,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>nom opérationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
+    <t>nomOperationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
@@ -19313,7 +19311,7 @@
         <v>80</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>72</v>
@@ -19510,7 +19508,7 @@
         <v>73</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>81</v>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:20:17+00:00</t>
+    <t>2024-02-21T15:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:13:04+00:00</t>
+    <t>2024-02-26T15:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T15:10:23+00:00</t>
+    <t>2024-02-29T09:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:27:29+00:00</t>
+    <t>2024-02-29T09:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:39:56+00:00</t>
+    <t>2024-03-12T11:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T11:10:47+00:00</t>
+    <t>2024-03-12T16:09:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:09:00+00:00</t>
+    <t>2024-03-12T16:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:11:04+00:00</t>
+    <t>2024-03-12T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:23:37+00:00</t>
+    <t>2024-03-12T17:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:24:09+00:00</t>
+    <t>2024-03-12T17:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:37:11+00:00</t>
+    <t>2024-03-12T17:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:47:27+00:00</t>
+    <t>2024-03-12T18:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:03:49+00:00</t>
+    <t>2024-03-12T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:27:00+00:00</t>
+    <t>2024-03-12T18:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:45:19+00:00</t>
+    <t>2024-03-12T19:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:04:09+00:00</t>
+    <t>2024-03-12T19:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:33:13+00:00</t>
+    <t>2024-03-12T20:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:05:23+00:00</t>
+    <t>2024-03-12T20:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:36:46+00:00</t>
+    <t>2024-03-12T20:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:57:01+00:00</t>
+    <t>2024-03-12T21:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T21:17:35+00:00</t>
+    <t>2024-03-13T08:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T08:46:11+00:00</t>
+    <t>2024-03-13T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:02:53+00:00</t>
+    <t>2024-03-13T09:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T10:24:41+00:00</t>
+    <t>2024-03-13T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:27:50+00:00</t>
+    <t>2024-03-13T16:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:38:24+00:00</t>
+    <t>2024-03-13T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1316,7 +1316,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R345-TypeIdentifiantAutre/FHIR/TRE-R345-TypeIdentifiantAutre"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R345-TypeIdentifiantAutre/FHIR/TRE_R345-TypeIdentifiantAutre"/&gt;
     &lt;code value="42"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1149,7 +1149,7 @@
     <t>Organization.identifier:finess.system</t>
   </si>
   <si>
-    <t>http://finess.esante.gouv.fr</t>
+    <t>https://finess.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:finess.value</t>
@@ -1193,7 +1193,7 @@
     <t>Organization.identifier:sirene.system</t>
   </si>
   <si>
-    <t>http://sirene.fr</t>
+    <t>https://sirene.fr</t>
   </si>
   <si>
     <t>Organization.identifier:sirene.value</t>
@@ -1237,7 +1237,7 @@
     <t>Organization.identifier:rppsRang.system</t>
   </si>
   <si>
-    <t>http://rppsrang.esante.gouv.fr</t>
+    <t>https://rppsrang.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:rppsRang.value</t>
@@ -1366,7 +1366,7 @@
     <t>Organization.identifier:adeliRang.system</t>
   </si>
   <si>
-    <t>http://adelirang.esante.gouv.fr</t>
+    <t>https://adelirang.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:adeliRang.value</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$250</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="915">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2183,6 +2183,13 @@
 </t>
   </si>
   <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
     <t>Organization.address.extension:ror-organization-geolocation.extension:longitude</t>
   </si>
   <si>
@@ -2230,7 +2237,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -2434,25 +2441,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>JDV_J103-TypeVoie-RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
   </si>
   <si>
     <t>Organization.address.line.extension:postalBox</t>
@@ -3230,7 +3218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ251"/>
+  <dimension ref="A1:AJ250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -21764,7 +21752,7 @@
         <v>72</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L181" t="s" s="2">
         <v>96</v>
@@ -21830,7 +21818,7 @@
         <v>80</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>72</v>
@@ -21930,7 +21918,7 @@
         <v>74</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>109</v>
@@ -21947,7 +21935,7 @@
         <v>674</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -21974,9 +21962,7 @@
       <c r="M183" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N183" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>72</v>
@@ -22034,7 +22020,7 @@
         <v>74</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>109</v>
@@ -22068,7 +22054,7 @@
         <v>72</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L184" t="s" s="2">
         <v>96</v>
@@ -22134,7 +22120,7 @@
         <v>80</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>72</v>
@@ -22149,7 +22135,7 @@
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -22171,14 +22157,12 @@
         <v>101</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
         <v>72</v>
@@ -22236,7 +22220,7 @@
         <v>74</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>109</v>
@@ -22378,7 +22362,7 @@
         <v>661</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22438,7 +22422,7 @@
         <v>80</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>92</v>
+        <v>687</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>93</v>
@@ -22446,16 +22430,16 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
@@ -22477,14 +22461,12 @@
         <v>101</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>72</v>
@@ -22542,7 +22524,7 @@
         <v>74</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>109</v>
@@ -22550,7 +22532,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>678</v>
@@ -22576,7 +22558,7 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>96</v>
@@ -22642,7 +22624,7 @@
         <v>80</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>72</v>
@@ -22650,14 +22632,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>680</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -22679,14 +22661,12 @@
         <v>101</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>72</v>
@@ -22744,7 +22724,7 @@
         <v>74</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>109</v>
@@ -22752,7 +22732,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>682</v>
@@ -22795,7 +22775,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>72</v>
@@ -22854,7 +22834,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>684</v>
@@ -22886,7 +22866,7 @@
         <v>661</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22946,7 +22926,7 @@
         <v>80</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>92</v>
+        <v>687</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>93</v>
@@ -22954,13 +22934,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>72</v>
@@ -22982,13 +22962,13 @@
         <v>72</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L193" t="s" s="2">
         <v>184</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -23048,7 +23028,7 @@
         <v>74</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>109</v>
@@ -23056,7 +23036,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>653</v>
@@ -23099,7 +23079,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>72</v>
@@ -23158,7 +23138,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>660</v>
@@ -23184,13 +23164,13 @@
         <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -23250,7 +23230,7 @@
         <v>80</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>92</v>
+        <v>687</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>93</v>
@@ -23258,10 +23238,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23287,16 +23267,16 @@
         <v>161</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>72</v>
@@ -23309,7 +23289,7 @@
         <v>72</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>72</v>
@@ -23324,10 +23304,10 @@
         <v>153</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>72</v>
@@ -23345,7 +23325,7 @@
         <v>72</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>73</v>
@@ -23362,10 +23342,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23391,13 +23371,13 @@
         <v>161</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -23411,7 +23391,7 @@
         <v>72</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>72</v>
@@ -23426,10 +23406,10 @@
         <v>153</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>72</v>
@@ -23447,7 +23427,7 @@
         <v>72</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>73</v>
@@ -23464,10 +23444,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23493,16 +23473,16 @@
         <v>95</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>72</v>
@@ -23515,7 +23495,7 @@
         <v>72</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>72</v>
@@ -23551,7 +23531,7 @@
         <v>72</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>73</v>
@@ -23568,10 +23548,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23597,10 +23577,10 @@
         <v>95</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N199" t="s" s="2">
         <v>476</v>
@@ -23617,7 +23597,7 @@
         <v>72</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>72</v>
@@ -23653,7 +23633,7 @@
         <v>72</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>73</v>
@@ -23670,10 +23650,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23770,10 +23750,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23872,13 +23852,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>72</v>
@@ -23900,13 +23880,13 @@
         <v>72</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23974,13 +23954,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>72</v>
@@ -24002,13 +23982,13 @@
         <v>72</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -24076,13 +24056,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>72</v>
@@ -24104,13 +24084,13 @@
         <v>72</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24178,13 +24158,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>72</v>
@@ -24206,13 +24186,13 @@
         <v>72</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -24280,13 +24260,13 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>72</v>
@@ -24308,13 +24288,13 @@
         <v>72</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -24382,10 +24362,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24408,7 +24388,7 @@
         <v>72</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L207" t="s" s="2">
         <v>96</v>
@@ -24474,7 +24454,7 @@
         <v>80</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>72</v>
@@ -24482,21 +24462,21 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>72</v>
@@ -24511,14 +24491,12 @@
         <v>101</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>72</v>
@@ -24576,7 +24554,7 @@
         <v>74</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>109</v>
@@ -24584,10 +24562,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24627,7 +24605,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>72</v>
@@ -24686,10 +24664,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24697,7 +24675,7 @@
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>80</v>
@@ -24712,13 +24690,13 @@
         <v>72</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>701</v>
+        <v>95</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24749,20 +24727,22 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AC210" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>769</v>
+        <v>72</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>664</v>
@@ -24774,7 +24754,7 @@
         <v>80</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>92</v>
+        <v>687</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>93</v>
@@ -24785,7 +24765,7 @@
         <v>770</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="C211" t="s" s="2">
         <v>771</v>
@@ -24801,7 +24781,7 @@
         <v>80</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>72</v>
@@ -24810,13 +24790,13 @@
         <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>95</v>
+        <v>772</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>661</v>
+        <v>773</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>662</v>
+        <v>774</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -24843,13 +24823,13 @@
         <v>72</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>772</v>
+        <v>72</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>773</v>
+        <v>72</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>72</v>
@@ -24867,30 +24847,30 @@
         <v>72</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>664</v>
+        <v>108</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>72</v>
@@ -24912,13 +24892,13 @@
         <v>72</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24986,13 +24966,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>72</v>
@@ -25014,13 +24994,13 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -25088,14 +25068,12 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C214" t="s" s="2">
         <v>785</v>
       </c>
+      <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
         <v>72</v>
       </c>
@@ -25107,7 +25085,7 @@
         <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>72</v>
@@ -25116,13 +25094,13 @@
         <v>72</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>786</v>
+        <v>95</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>787</v>
+        <v>566</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>788</v>
+        <v>566</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -25146,7 +25124,7 @@
         <v>72</v>
       </c>
       <c r="W214" t="s" s="2">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="X214" t="s" s="2">
         <v>72</v>
@@ -25173,31 +25151,31 @@
         <v>72</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>72</v>
+        <v>787</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -25207,24 +25185,26 @@
         <v>80</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K215" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>566</v>
+        <v>788</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>789</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>72</v>
@@ -25237,7 +25217,7 @@
         <v>72</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>72</v>
+        <v>790</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>72</v>
@@ -25246,7 +25226,7 @@
         <v>72</v>
       </c>
       <c r="W215" t="s" s="2">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="X215" t="s" s="2">
         <v>72</v>
@@ -25273,7 +25253,7 @@
         <v>72</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>568</v>
+        <v>791</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
@@ -25282,22 +25262,22 @@
         <v>80</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25307,7 +25287,7 @@
         <v>80</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>72</v>
@@ -25319,13 +25299,13 @@
         <v>95</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>476</v>
+        <v>796</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25339,7 +25319,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25375,7 +25355,7 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
@@ -25392,14 +25372,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25421,13 +25401,13 @@
         <v>95</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>800</v>
+        <v>476</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -25441,7 +25421,7 @@
         <v>72</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>801</v>
+        <v>72</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>72</v>
@@ -25477,7 +25457,7 @@
         <v>72</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
@@ -25494,14 +25474,14 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25511,7 +25491,7 @@
         <v>80</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>72</v>
@@ -25523,10 +25503,10 @@
         <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>476</v>
@@ -25543,7 +25523,7 @@
         <v>72</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>72</v>
+        <v>808</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>72</v>
@@ -25579,7 +25559,7 @@
         <v>72</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>73</v>
@@ -25596,14 +25576,14 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>809</v>
+        <v>72</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
@@ -25613,7 +25593,7 @@
         <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>72</v>
@@ -25625,13 +25605,13 @@
         <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>476</v>
+        <v>813</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -25645,7 +25625,7 @@
         <v>72</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>812</v>
+        <v>72</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>72</v>
@@ -25681,7 +25661,7 @@
         <v>72</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
@@ -25698,10 +25678,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25724,18 +25704,20 @@
         <v>81</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>818</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>72</v>
       </c>
@@ -25747,7 +25729,7 @@
         <v>72</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>72</v>
+        <v>819</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>72</v>
@@ -25783,7 +25765,7 @@
         <v>72</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>73</v>
@@ -25795,15 +25777,15 @@
         <v>92</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25817,7 +25799,7 @@
         <v>80</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>72</v>
@@ -25826,19 +25808,19 @@
         <v>81</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>322</v>
+        <v>822</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25851,7 +25833,7 @@
         <v>72</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>823</v>
+        <v>72</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>72</v>
@@ -25887,7 +25869,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25899,15 +25881,15 @@
         <v>92</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25921,29 +25903,25 @@
         <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>826</v>
+        <v>95</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>827</v>
+        <v>96</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>830</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>72</v>
       </c>
@@ -25991,7 +25969,7 @@
         <v>72</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>825</v>
+        <v>98</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>73</v>
@@ -26000,29 +25978,29 @@
         <v>80</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>334</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>72</v>
@@ -26034,15 +26012,17 @@
         <v>72</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N223" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>72</v>
@@ -26079,50 +26059,50 @@
         <v>72</v>
       </c>
       <c r="AB223" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD223" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI223" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>72</v>
@@ -26131,19 +26111,19 @@
         <v>72</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>102</v>
+        <v>830</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>103</v>
+        <v>831</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>104</v>
+        <v>832</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -26181,39 +26161,39 @@
         <v>72</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD224" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>108</v>
+        <v>833</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>92</v>
+        <v>834</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26236,16 +26216,16 @@
         <v>81</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26271,13 +26251,13 @@
         <v>72</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>72</v>
+        <v>839</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>72</v>
+        <v>442</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>72</v>
@@ -26295,7 +26275,7 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
@@ -26304,7 +26284,7 @@
         <v>80</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>838</v>
+        <v>92</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>93</v>
@@ -26312,10 +26292,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26338,16 +26318,16 @@
         <v>81</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
@@ -26373,13 +26353,13 @@
         <v>72</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>843</v>
+        <v>72</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>72</v>
@@ -26397,7 +26377,7 @@
         <v>72</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
@@ -26414,10 +26394,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26440,16 +26420,16 @@
         <v>81</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -26499,7 +26479,7 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
@@ -26516,10 +26496,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26530,7 +26510,7 @@
         <v>73</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>72</v>
@@ -26539,21 +26519,23 @@
         <v>72</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>95</v>
+        <v>852</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O228" s="2"/>
+        <v>855</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>856</v>
+      </c>
       <c r="P228" t="s" s="2">
         <v>72</v>
       </c>
@@ -26601,13 +26583,13 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>92</v>
@@ -26618,10 +26600,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26632,7 +26614,7 @@
         <v>73</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>72</v>
@@ -26644,20 +26626,16 @@
         <v>72</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>856</v>
+        <v>95</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>857</v>
+        <v>96</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
         <v>72</v>
       </c>
@@ -26705,38 +26683,38 @@
         <v>72</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>855</v>
+        <v>98</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>72</v>
@@ -26748,15 +26726,17 @@
         <v>72</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N230" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>72</v>
@@ -26793,53 +26773,55 @@
         <v>72</v>
       </c>
       <c r="AB230" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD230" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C231" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>860</v>
+      </c>
       <c r="D231" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>72</v>
@@ -26848,17 +26830,15 @@
         <v>72</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>101</v>
+        <v>861</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>102</v>
+        <v>862</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>72</v>
@@ -26895,16 +26875,16 @@
         <v>72</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>108</v>
@@ -26924,13 +26904,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>72</v>
@@ -26952,13 +26932,13 @@
         <v>72</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -27026,13 +27006,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>72</v>
@@ -27054,13 +27034,13 @@
         <v>72</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -27128,35 +27108,33 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C234" t="s" s="2">
         <v>874</v>
       </c>
+      <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
-        <v>72</v>
+        <v>875</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G234" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H234" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I234" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I234" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J234" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>875</v>
+        <v>101</v>
       </c>
       <c r="L234" t="s" s="2">
         <v>876</v>
@@ -27164,8 +27142,12 @@
       <c r="M234" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
+      <c r="N234" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27213,7 +27195,7 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>108</v>
+        <v>878</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
@@ -27230,33 +27212,33 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>879</v>
+        <v>72</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>880</v>
@@ -27265,10 +27247,10 @@
         <v>881</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>104</v>
+        <v>882</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>280</v>
+        <v>883</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27293,13 +27275,11 @@
         <v>72</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>72</v>
+        <v>884</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>72</v>
@@ -27317,27 +27297,27 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI235" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27360,19 +27340,19 @@
         <v>72</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>300</v>
+        <v>886</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>72</v>
@@ -27397,11 +27377,13 @@
         <v>72</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y236" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z236" t="s" s="2">
-        <v>888</v>
+        <v>72</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>72</v>
@@ -27419,7 +27401,7 @@
         <v>72</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>73</v>
@@ -27436,10 +27418,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27450,10 +27432,10 @@
         <v>73</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>72</v>
@@ -27462,19 +27444,17 @@
         <v>72</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>890</v>
+        <v>575</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="N237" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N237" s="2"/>
+      <c r="O237" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>72</v>
@@ -27523,19 +27503,19 @@
         <v>72</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH237" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI237" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>93</v>
+        <v>894</v>
       </c>
     </row>
     <row r="238" hidden="true">
@@ -27554,7 +27534,7 @@
         <v>73</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>72</v>
@@ -27566,18 +27546,16 @@
         <v>72</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>575</v>
+        <v>95</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>896</v>
+        <v>96</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>577</v>
+        <v>97</v>
       </c>
       <c r="N238" s="2"/>
-      <c r="O238" t="s" s="2">
-        <v>897</v>
-      </c>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>72</v>
       </c>
@@ -27625,27 +27603,27 @@
         <v>72</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>895</v>
+        <v>98</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>898</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27653,10 +27631,10 @@
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>73</v>
+        <v>584</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H239" t="s" s="2">
         <v>72</v>
@@ -27668,13 +27646,13 @@
         <v>72</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -27713,50 +27691,52 @@
         <v>72</v>
       </c>
       <c r="AB239" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC239" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD239" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH239" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>896</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D240" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>584</v>
+        <v>73</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H240" t="s" s="2">
         <v>72</v>
@@ -27768,15 +27748,17 @@
         <v>72</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>101</v>
+        <v>587</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>184</v>
+        <v>588</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N240" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>72</v>
@@ -27813,16 +27795,16 @@
         <v>72</v>
       </c>
       <c r="AB240" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD240" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>108</v>
@@ -27842,26 +27824,26 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D241" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>72</v>
@@ -27870,17 +27852,15 @@
         <v>72</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N241" s="2"/>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>72</v>
@@ -27946,20 +27926,20 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>80</v>
@@ -27974,13 +27954,13 @@
         <v>72</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -28048,20 +28028,20 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G243" t="s" s="2">
         <v>80</v>
@@ -28076,13 +28056,13 @@
         <v>72</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>597</v>
+        <v>901</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -28150,14 +28130,12 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C244" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
         <v>72</v>
       </c>
@@ -28169,24 +28147,26 @@
         <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J244" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J244" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="K244" t="s" s="2">
-        <v>591</v>
+        <v>161</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>905</v>
+        <v>605</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N244" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>72</v>
@@ -28211,13 +28191,13 @@
         <v>72</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>72</v>
+        <v>607</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="AA244" t="s" s="2">
         <v>72</v>
@@ -28235,27 +28215,27 @@
         <v>72</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>108</v>
+        <v>609</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>92</v>
+        <v>610</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28269,7 +28249,7 @@
         <v>80</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>72</v>
@@ -28278,18 +28258,20 @@
         <v>81</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O245" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P245" t="s" s="2">
         <v>72</v>
       </c>
@@ -28313,13 +28295,13 @@
         <v>72</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>607</v>
+        <v>72</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>608</v>
+        <v>72</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>72</v>
@@ -28337,7 +28319,7 @@
         <v>72</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>73</v>
@@ -28346,7 +28328,7 @@
         <v>80</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>610</v>
+        <v>92</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>93</v>
@@ -28354,10 +28336,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28365,34 +28347,34 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I246" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I246" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="J246" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>72</v>
@@ -28417,13 +28399,13 @@
         <v>72</v>
       </c>
       <c r="X246" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>72</v>
+        <v>622</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>72</v>
+        <v>623</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>72</v>
@@ -28441,7 +28423,7 @@
         <v>72</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>73</v>
@@ -28458,10 +28440,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28478,26 +28460,24 @@
         <v>72</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>161</v>
+        <v>626</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
         <v>72</v>
       </c>
@@ -28521,13 +28501,13 @@
         <v>72</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>622</v>
+        <v>72</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>623</v>
+        <v>72</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>72</v>
@@ -28545,7 +28525,7 @@
         <v>72</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>73</v>
@@ -28562,10 +28542,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28588,16 +28568,16 @@
         <v>81</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>626</v>
+        <v>322</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>629</v>
+        <v>325</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -28647,7 +28627,7 @@
         <v>72</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>73</v>
@@ -28659,15 +28639,15 @@
         <v>92</v>
       </c>
       <c r="AJ248" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28687,21 +28667,23 @@
         <v>72</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>322</v>
+        <v>636</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>632</v>
+        <v>908</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O249" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>909</v>
+      </c>
       <c r="P249" t="s" s="2">
         <v>72</v>
       </c>
@@ -28749,7 +28731,7 @@
         <v>72</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>634</v>
+        <v>907</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>73</v>
@@ -28761,15 +28743,15 @@
         <v>92</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28780,7 +28762,7 @@
         <v>73</v>
       </c>
       <c r="G250" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>72</v>
@@ -28792,19 +28774,19 @@
         <v>72</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>636</v>
+        <v>911</v>
       </c>
       <c r="L250" t="s" s="2">
         <v>912</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>638</v>
+        <v>913</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>639</v>
+        <v>825</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>72</v>
@@ -28853,127 +28835,23 @@
         <v>72</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" hidden="true">
-      <c r="A251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K251" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="P251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q251" s="2"/>
-      <c r="R251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="AG251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI251" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ251" t="s" s="2">
         <v>334</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ251">
+  <autoFilter ref="A1:AJ250">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -28983,7 +28861,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI250">
+  <conditionalFormatting sqref="A2:AI249">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -794,7 +794,7 @@
 </t>
   </si>
   <si>
-    <t>datePrevisionnelleReouverture (OI)</t>
+    <t>datePrevisionnelleReouverture (OI) : Date prévisionnelle à partir de laquelle la prestation sera de nouveau assurée</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour définir la date prévisionnelle de réouverture de l'organisation interne.</t>
@@ -826,7 +826,7 @@
 </t>
   </si>
   <si>
-    <t>typeFermeture (EJ + EG + OI) : Date prévisionnelle à partir de laquelle la prestation sera de nouveau assurée</t>
+    <t>typeFermeture (EJ + EG + OI) : Le type de fermeture d'un niveau organisationnel indique la temporalité de la fermeture.</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour définir le type de fermeture de l'organisation.</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2237,7 +2237,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Organization.address.use</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -403,7 +403,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -423,7 +423,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3227,15 +3227,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="91.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.6484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3246,21 +3246,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="81.27734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="131.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="69.6796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="112.7890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.2734375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
     <t>organization-period</t>
   </si>
   <si>
-    <t>dateOuverture (EJ + OI) + dateFermeture (EJ + EG + OI)</t>
+    <t>dateOuverture (EG + OI) + dateFermeture (EJ + EG + OI)</t>
   </si>
   <si>
     <t>Organization.extension:ror-meta-comment</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3227,15 +3227,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="78.625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="91.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3246,21 +3246,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="69.6796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="112.7890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.2734375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="81.27734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="131.5625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="915">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
 </t>
   </si>
   <si>
-    <t>boiteLettreMSS (OffreOperationnelle) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l’organisation interne</t>
+    <t>boiteLettreMSS (OrganisationInterne) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l’organisation interne</t>
   </si>
   <si>
     <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
@@ -26707,11 +26707,11 @@
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>74</v>
@@ -26729,14 +26729,12 @@
         <v>101</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>72</v>
@@ -27019,7 +27017,7 @@
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="916">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2141,6 +2141,9 @@
   </si>
   <si>
     <t>Organization.address.extension:ror-organization-geolocation.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.address.extension:ror-organization-geolocation.extension:latitude</t>
@@ -21833,7 +21836,7 @@
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -21855,12 +21858,14 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>72</v>
@@ -21926,13 +21931,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>72</v>
@@ -21957,10 +21962,10 @@
         <v>101</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22028,10 +22033,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22128,10 +22133,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22228,10 +22233,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22271,7 +22276,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>72</v>
@@ -22330,10 +22335,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22356,13 +22361,13 @@
         <v>72</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L187" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22422,7 +22427,7 @@
         <v>80</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>93</v>
@@ -22430,13 +22435,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>72</v>
@@ -22461,10 +22466,10 @@
         <v>101</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -22532,10 +22537,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22632,10 +22637,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22732,10 +22737,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22775,7 +22780,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>72</v>
@@ -22834,10 +22839,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22860,13 +22865,13 @@
         <v>72</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L192" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22926,7 +22931,7 @@
         <v>80</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>93</v>
@@ -22934,13 +22939,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>72</v>
@@ -22962,13 +22967,13 @@
         <v>72</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L193" t="s" s="2">
         <v>184</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -23036,7 +23041,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>653</v>
@@ -23079,7 +23084,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>72</v>
@@ -23138,7 +23143,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>660</v>
@@ -23164,13 +23169,13 @@
         <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -23230,7 +23235,7 @@
         <v>80</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>93</v>
@@ -23238,10 +23243,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23267,16 +23272,16 @@
         <v>161</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>72</v>
@@ -23289,7 +23294,7 @@
         <v>72</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>72</v>
@@ -23304,10 +23309,10 @@
         <v>153</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>72</v>
@@ -23325,7 +23330,7 @@
         <v>72</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>73</v>
@@ -23342,10 +23347,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23371,13 +23376,13 @@
         <v>161</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -23391,7 +23396,7 @@
         <v>72</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>72</v>
@@ -23406,10 +23411,10 @@
         <v>153</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>72</v>
@@ -23427,7 +23432,7 @@
         <v>72</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>73</v>
@@ -23444,10 +23449,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23473,16 +23478,16 @@
         <v>95</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>72</v>
@@ -23495,7 +23500,7 @@
         <v>72</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>72</v>
@@ -23531,7 +23536,7 @@
         <v>72</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>73</v>
@@ -23548,10 +23553,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23577,10 +23582,10 @@
         <v>95</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N199" t="s" s="2">
         <v>476</v>
@@ -23597,7 +23602,7 @@
         <v>72</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>72</v>
@@ -23633,7 +23638,7 @@
         <v>72</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>73</v>
@@ -23650,10 +23655,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23750,10 +23755,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23852,13 +23857,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B202" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="B202" t="s" s="2">
-        <v>734</v>
-      </c>
       <c r="C202" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>72</v>
@@ -23880,13 +23885,13 @@
         <v>72</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23954,13 +23959,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>72</v>
@@ -23982,13 +23987,13 @@
         <v>72</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -24056,13 +24061,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>72</v>
@@ -24084,13 +24089,13 @@
         <v>72</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24158,13 +24163,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>72</v>
@@ -24186,13 +24191,13 @@
         <v>72</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -24260,13 +24265,13 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>72</v>
@@ -24288,13 +24293,13 @@
         <v>72</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -24362,10 +24367,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24462,10 +24467,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24562,10 +24567,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24605,7 +24610,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>72</v>
@@ -24664,10 +24669,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24696,7 +24701,7 @@
         <v>661</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24727,7 +24732,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>72</v>
@@ -24754,7 +24759,7 @@
         <v>80</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>93</v>
@@ -24762,13 +24767,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>72</v>
@@ -24790,13 +24795,13 @@
         <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -24864,13 +24869,13 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>72</v>
@@ -24892,13 +24897,13 @@
         <v>72</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24966,13 +24971,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>72</v>
@@ -24994,13 +24999,13 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -25068,10 +25073,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25168,14 +25173,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -25197,10 +25202,10 @@
         <v>95</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>476</v>
@@ -25217,7 +25222,7 @@
         <v>72</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>72</v>
@@ -25253,7 +25258,7 @@
         <v>72</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
@@ -25270,14 +25275,14 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25299,13 +25304,13 @@
         <v>95</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25319,7 +25324,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25355,7 +25360,7 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
@@ -25372,14 +25377,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25401,10 +25406,10 @@
         <v>95</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>476</v>
@@ -25457,7 +25462,7 @@
         <v>72</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
@@ -25474,14 +25479,14 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25503,10 +25508,10 @@
         <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>476</v>
@@ -25523,7 +25528,7 @@
         <v>72</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>72</v>
@@ -25559,7 +25564,7 @@
         <v>72</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>73</v>
@@ -25576,10 +25581,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25605,13 +25610,13 @@
         <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -25661,7 +25666,7 @@
         <v>72</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
@@ -25678,10 +25683,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25707,16 +25712,16 @@
         <v>322</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N220" t="s" s="2">
         <v>325</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>72</v>
@@ -25729,7 +25734,7 @@
         <v>72</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>72</v>
@@ -25765,7 +25770,7 @@
         <v>72</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>73</v>
@@ -25782,10 +25787,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25808,19 +25813,19 @@
         <v>81</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25869,7 +25874,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25886,10 +25891,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25986,10 +25991,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26088,10 +26093,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26117,13 +26122,13 @@
         <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -26173,7 +26178,7 @@
         <v>72</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>73</v>
@@ -26182,7 +26187,7 @@
         <v>80</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>93</v>
@@ -26190,10 +26195,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26219,13 +26224,13 @@
         <v>122</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26254,7 +26259,7 @@
         <v>138</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>442</v>
@@ -26275,7 +26280,7 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
@@ -26292,10 +26297,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26321,13 +26326,13 @@
         <v>283</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
@@ -26377,7 +26382,7 @@
         <v>72</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
@@ -26394,10 +26399,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26423,13 +26428,13 @@
         <v>95</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -26479,7 +26484,7 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
@@ -26496,10 +26501,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26522,19 +26527,19 @@
         <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>72</v>
@@ -26583,7 +26588,7 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
@@ -26600,10 +26605,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26700,10 +26705,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26800,13 +26805,13 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="B231" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="B231" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="C231" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>72</v>
@@ -26828,13 +26833,13 @@
         <v>72</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -26902,13 +26907,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>72</v>
@@ -26930,13 +26935,13 @@
         <v>72</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -27004,13 +27009,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>72</v>
@@ -27032,13 +27037,13 @@
         <v>72</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -27106,14 +27111,14 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
@@ -27135,10 +27140,10 @@
         <v>101</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>104</v>
@@ -27193,7 +27198,7 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
@@ -27210,10 +27215,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27239,16 +27244,16 @@
         <v>300</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27277,7 +27282,7 @@
       </c>
       <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>72</v>
@@ -27295,7 +27300,7 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
@@ -27312,10 +27317,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27338,19 +27343,19 @@
         <v>72</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>72</v>
@@ -27399,7 +27404,7 @@
         <v>72</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>73</v>
@@ -27416,10 +27421,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27445,14 +27450,14 @@
         <v>575</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M237" t="s" s="2">
         <v>577</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>72</v>
@@ -27501,7 +27506,7 @@
         <v>72</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>73</v>
@@ -27513,15 +27518,15 @@
         <v>92</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27618,10 +27623,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27718,10 +27723,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="B240" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="C240" t="s" s="2">
         <v>586</v>
@@ -27822,10 +27827,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>600</v>
@@ -27924,10 +27929,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C242" t="s" s="2">
         <v>595</v>
@@ -28026,10 +28031,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>590</v>
@@ -28057,7 +28062,7 @@
         <v>591</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M243" t="s" s="2">
         <v>593</v>
@@ -28128,10 +28133,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28230,10 +28235,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28334,10 +28339,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28438,10 +28443,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28540,10 +28545,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28642,10 +28647,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28671,7 +28676,7 @@
         <v>636</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>638</v>
@@ -28680,7 +28685,7 @@
         <v>639</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="P249" t="s" s="2">
         <v>72</v>
@@ -28729,7 +28734,7 @@
         <v>72</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>73</v>
@@ -28746,10 +28751,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28772,19 +28777,19 @@
         <v>72</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>72</v>
@@ -28833,7 +28838,7 @@
         <v>72</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>73</v>

--- a/main/ig/StructureDefinition-ror-organization.xlsx
+++ b/main/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
